--- a/Employee_Reports35/Tharaka Thanujaya Dissanayaka Dissanayaka Mudiyanselage Q0573.xlsx
+++ b/Employee_Reports35/Tharaka Thanujaya Dissanayaka Dissanayaka Mudiyanselage Q0573.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -46,12 +46,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="001F4E78"/>
         <bgColor rgb="001F4E78"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -73,7 +67,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -82,9 +76,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,15 +452,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="59" customWidth="1" min="2" max="2"/>
+    <col width="46" customWidth="1" min="2" max="2"/>
     <col width="35" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -543,40 +534,28 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>LOTO (SOPs)</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>ELECTRICAL SAFETY</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>LSME-OHS-SOP-021</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>IS0 55001 (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>21-Sep-2025</t>
+          <t>18-Aug-2024</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>21-Sep-2026</t>
+          <t>18-Aug-2026</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -587,480 +566,62 @@
       <c r="K3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Equipment Operation Procedure
-(SOP-031) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-031</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>06-Jun-2024</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>06-Jun-2025</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>-150</v>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K4" s="4" t="inlineStr"/>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Material request Procedure (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>17-Nov-2024</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>17-Nov-2026</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>378</v>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Equipment  Request &amp;handover procedure(SOP-028) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-028</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>14-May-2024</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>14-May-2025</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>-173</v>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K5" s="4" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>STACKER CRANE AISLE MONTHLY PREVENTIVE MAINTENANCE (SOPs)</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-035</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>12-Aug-2024</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>12-Aug-2025</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>-83</v>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K6" s="4" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Endangered by Electricity A safety Training (SOPs)</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>12-Aug-2024</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>12-Aug-2025</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>-83</v>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-021</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>16-Mar-2025</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>16-Mar-2026</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>133</v>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K8" s="3" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-018</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>19-Feb-2025</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>19-Feb-2026</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>108</v>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K9" s="3" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-009</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>28-Jul-2025</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>28-Jul-2026</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>267</v>
-      </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K10" s="3" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-010</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>28-Jul-2025</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>28-Jul-2026</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>267</v>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K11" s="3" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>IS0 55001 (Other Trainings)</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr"/>
-      <c r="D12" s="3" t="inlineStr"/>
-      <c r="E12" s="3" t="inlineStr"/>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>18-Aug-2024</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>18-Aug-2026</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>288</v>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K12" s="3" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Material request Procedure (Other Trainings)</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr"/>
-      <c r="E13" s="3" t="inlineStr"/>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>17-Nov-2024</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>17-Nov-2026</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>379</v>
-      </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K13" s="3" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr"/>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr"/>
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>YOU ARE LISTED AS ; TECHNICAL SUPPORT TEAM</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>&amp; THIS IS YOUR TRAINING DASHBOARD</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr"/>
-      <c r="E14" s="3" t="inlineStr"/>
-      <c r="F14" s="3" t="inlineStr"/>
-      <c r="G14" s="3" t="inlineStr"/>
-      <c r="H14" s="3" t="inlineStr"/>
-      <c r="I14" s="3" t="inlineStr"/>
-      <c r="J14" s="3" t="inlineStr"/>
-      <c r="K14" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr"/>
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Tharaka Thanujaya Dissanayaka Dissanayaka Mudiyanselage Q0573.xlsx
+++ b/Employee_Reports35/Tharaka Thanujaya Dissanayaka Dissanayaka Mudiyanselage Q0573.xlsx
@@ -551,11 +551,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -588,11 +588,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
